--- a/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1107,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1823,7 +1823,7 @@
         <v>1.77</v>
       </c>
       <c r="AT4">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT9">
         <v>0.54</v>
@@ -3924,7 +3924,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU15">
         <v>1.12</v>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
         <v>1.64</v>
@@ -6404,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT28">
         <v>1.77</v>
@@ -6789,7 +6789,7 @@
         <v>0.62</v>
       </c>
       <c r="AT30">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU30">
         <v>1.63</v>
@@ -7168,7 +7168,7 @@
         <v>0.33</v>
       </c>
       <c r="AS32">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT32">
         <v>1.14</v>
@@ -9463,7 +9463,7 @@
         <v>1.15</v>
       </c>
       <c r="AT44">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU44">
         <v>1.6</v>
@@ -10033,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT47">
         <v>0.92</v>
@@ -10606,7 +10606,7 @@
         <v>0.75</v>
       </c>
       <c r="AS50">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT50">
         <v>1.07</v>
@@ -10800,7 +10800,7 @@
         <v>0.93</v>
       </c>
       <c r="AT51">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU51">
         <v>1.06</v>
@@ -12710,7 +12710,7 @@
         <v>1.43</v>
       </c>
       <c r="AT61">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU61">
         <v>1.88</v>
@@ -13089,7 +13089,7 @@
         <v>2.17</v>
       </c>
       <c r="AS63">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -13665,7 +13665,7 @@
         <v>1.54</v>
       </c>
       <c r="AT66">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU66">
         <v>1.22</v>
@@ -14999,10 +14999,10 @@
         <v>1.29</v>
       </c>
       <c r="AS73">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT73">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU73">
         <v>1.06</v>
@@ -17294,7 +17294,7 @@
         <v>1.27</v>
       </c>
       <c r="AT85">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -19204,7 +19204,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU95">
         <v>1.58</v>
@@ -22066,7 +22066,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT110">
         <v>1.14</v>
@@ -23403,7 +23403,7 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT117">
         <v>1.64</v>
@@ -23785,7 +23785,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT119">
         <v>1.64</v>
@@ -24170,7 +24170,7 @@
         <v>1.43</v>
       </c>
       <c r="AT121">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU121">
         <v>1.56</v>
@@ -25125,7 +25125,7 @@
         <v>0.62</v>
       </c>
       <c r="AT126">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU126">
         <v>1.28</v>
@@ -25695,7 +25695,7 @@
         <v>0.64</v>
       </c>
       <c r="AS129">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT129">
         <v>0.54</v>
@@ -25889,7 +25889,7 @@
         <v>1.77</v>
       </c>
       <c r="AT130">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU130">
         <v>1.69</v>
@@ -27032,7 +27032,7 @@
         <v>1.67</v>
       </c>
       <c r="AS136">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT136">
         <v>1.77</v>
@@ -27278,6 +27278,197 @@
       </c>
       <c r="BK137">
         <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2465918</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F138">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>75</v>
+      </c>
+      <c r="P138" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>4</v>
+      </c>
+      <c r="S138">
+        <v>8</v>
+      </c>
+      <c r="T138">
+        <v>2.88</v>
+      </c>
+      <c r="U138">
+        <v>2.1</v>
+      </c>
+      <c r="V138">
+        <v>3.4</v>
+      </c>
+      <c r="W138">
+        <v>1.38</v>
+      </c>
+      <c r="X138">
+        <v>2.91</v>
+      </c>
+      <c r="Y138">
+        <v>2.74</v>
+      </c>
+      <c r="Z138">
+        <v>1.42</v>
+      </c>
+      <c r="AA138">
+        <v>6.9</v>
+      </c>
+      <c r="AB138">
+        <v>1.08</v>
+      </c>
+      <c r="AC138">
+        <v>2.3</v>
+      </c>
+      <c r="AD138">
+        <v>3.4</v>
+      </c>
+      <c r="AE138">
+        <v>2.8</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>8</v>
+      </c>
+      <c r="AH138">
+        <v>1.3</v>
+      </c>
+      <c r="AI138">
+        <v>3.4</v>
+      </c>
+      <c r="AJ138">
+        <v>1.95</v>
+      </c>
+      <c r="AK138">
+        <v>1.85</v>
+      </c>
+      <c r="AL138">
+        <v>1.73</v>
+      </c>
+      <c r="AM138">
+        <v>2</v>
+      </c>
+      <c r="AN138">
+        <v>1.4</v>
+      </c>
+      <c r="AO138">
+        <v>1.3</v>
+      </c>
+      <c r="AP138">
+        <v>1.55</v>
+      </c>
+      <c r="AQ138">
+        <v>1.92</v>
+      </c>
+      <c r="AR138">
+        <v>1.31</v>
+      </c>
+      <c r="AS138">
+        <v>1.86</v>
+      </c>
+      <c r="AT138">
+        <v>1.29</v>
+      </c>
+      <c r="AU138">
+        <v>1.18</v>
+      </c>
+      <c r="AV138">
+        <v>1.24</v>
+      </c>
+      <c r="AW138">
+        <v>2.42</v>
+      </c>
+      <c r="AX138">
+        <v>2.1</v>
+      </c>
+      <c r="AY138">
+        <v>5.75</v>
+      </c>
+      <c r="AZ138">
+        <v>1.9</v>
+      </c>
+      <c r="BA138">
+        <v>1.18</v>
+      </c>
+      <c r="BB138">
+        <v>1.27</v>
+      </c>
+      <c r="BC138">
+        <v>1.56</v>
+      </c>
+      <c r="BD138">
+        <v>2</v>
+      </c>
+      <c r="BE138">
+        <v>2.37</v>
+      </c>
+      <c r="BF138">
+        <v>2</v>
+      </c>
+      <c r="BG138">
+        <v>2</v>
+      </c>
+      <c r="BH138">
+        <v>3</v>
+      </c>
+      <c r="BI138">
+        <v>4</v>
+      </c>
+      <c r="BJ138">
+        <v>5</v>
+      </c>
+      <c r="BK138">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.86</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT10" t="n">
         <v>0.92</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.15</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>1.89</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT15" t="n">
         <v>1.29</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>2.44</v>
@@ -4151,7 +4151,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU18" t="n">
         <v>1.38</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT19" t="n">
         <v>1.07</v>
@@ -4557,7 +4557,7 @@
         <v>1.86</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU20" t="n">
         <v>0.97</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT21" t="n">
         <v>1.64</v>
@@ -4963,7 +4963,7 @@
         <v>1.43</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT23" t="n">
         <v>1.14</v>
@@ -5369,7 +5369,7 @@
         <v>1.15</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU24" t="n">
         <v>1.94</v>
@@ -5569,7 +5569,7 @@
         <v>1.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT25" t="n">
         <v>1.07</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.35</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>1.12</v>
@@ -6181,7 +6181,7 @@
         <v>1.86</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9399999999999999</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT30" t="n">
         <v>1.29</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7399,7 +7399,7 @@
         <v>1.77</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT35" t="n">
         <v>1.64</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT37" t="n">
         <v>1.07</v>
@@ -8208,10 +8208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU38" t="n">
         <v>1.81</v>
@@ -8617,7 +8617,7 @@
         <v>1.43</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.98</v>
@@ -8817,10 +8817,10 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU41" t="n">
         <v>1.02</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU42" t="n">
         <v>1.61</v>
@@ -9226,7 +9226,7 @@
         <v>1.27</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9629,10 +9629,10 @@
         <v>1.4</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU45" t="n">
         <v>1.27</v>
@@ -10238,10 +10238,10 @@
         <v>0.25</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -10441,7 +10441,7 @@
         <v>0.8</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT49" t="n">
         <v>1.14</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT51" t="n">
         <v>1.29</v>
@@ -11053,7 +11053,7 @@
         <v>1.77</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU52" t="n">
         <v>1.91</v>
@@ -11256,7 +11256,7 @@
         <v>1.27</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11659,7 +11659,7 @@
         <v>0.6</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT55" t="n">
         <v>1.07</v>
@@ -11862,7 +11862,7 @@
         <v>1.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT56" t="n">
         <v>0.92</v>
@@ -12068,7 +12068,7 @@
         <v>1.43</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>2.01</v>
@@ -12271,7 +12271,7 @@
         <v>1.77</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU58" t="n">
         <v>1.85</v>
@@ -12674,7 +12674,7 @@
         <v>1.4</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT60" t="n">
         <v>1.64</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU62" t="n">
         <v>1.51</v>
@@ -13286,7 +13286,7 @@
         <v>1.86</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU63" t="n">
         <v>1.07</v>
@@ -13486,10 +13486,10 @@
         <v>1.8</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU64" t="n">
         <v>1.33</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.12</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT66" t="n">
         <v>1.29</v>
@@ -14301,7 +14301,7 @@
         <v>1.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU68" t="n">
         <v>1.81</v>
@@ -14704,10 +14704,10 @@
         <v>1.29</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU70" t="n">
         <v>1.62</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT71" t="n">
         <v>0.92</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.17</v>
@@ -15516,10 +15516,10 @@
         <v>0.43</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.37</v>
@@ -15922,10 +15922,10 @@
         <v>1.86</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>1.27</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU77" t="n">
         <v>1.42</v>
@@ -16534,7 +16534,7 @@
         <v>1.15</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU79" t="n">
         <v>1.22</v>
@@ -16734,7 +16734,7 @@
         <v>0.86</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT80" t="n">
         <v>1.14</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT81" t="n">
         <v>1.64</v>
@@ -17140,7 +17140,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT82" t="n">
         <v>0.92</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU83" t="n">
         <v>1.31</v>
@@ -17955,7 +17955,7 @@
         <v>1.15</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU86" t="n">
         <v>1.2</v>
@@ -18155,10 +18155,10 @@
         <v>2</v>
       </c>
       <c r="AS87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT87" t="n">
         <v>1.86</v>
-      </c>
-      <c r="AT87" t="n">
-        <v>1.77</v>
       </c>
       <c r="AU87" t="n">
         <v>1.46</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT88" t="n">
         <v>1.14</v>
@@ -18561,7 +18561,7 @@
         <v>1.63</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT89" t="n">
         <v>1.64</v>
@@ -18767,7 +18767,7 @@
         <v>1.43</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU90" t="n">
         <v>1.7</v>
@@ -19170,10 +19170,10 @@
         <v>1.63</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19373,10 +19373,10 @@
         <v>1.44</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU93" t="n">
         <v>1.32</v>
@@ -19779,7 +19779,7 @@
         <v>1.11</v>
       </c>
       <c r="AS95" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT95" t="n">
         <v>1.29</v>
@@ -19985,7 +19985,7 @@
         <v>1.15</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.18</v>
@@ -20185,7 +20185,7 @@
         <v>0.78</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT97" t="n">
         <v>1.07</v>
@@ -20388,10 +20388,10 @@
         <v>1.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU98" t="n">
         <v>1.34</v>
@@ -20997,10 +20997,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU101" t="n">
         <v>1.55</v>
@@ -21200,10 +21200,10 @@
         <v>1.44</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU102" t="n">
         <v>1.3</v>
@@ -22012,10 +22012,10 @@
         <v>1.27</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22218,7 +22218,7 @@
         <v>1.27</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU107" t="n">
         <v>1.36</v>
@@ -22418,7 +22418,7 @@
         <v>0.55</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT108" t="n">
         <v>0.92</v>
@@ -23027,10 +23027,10 @@
         <v>1.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU111" t="n">
         <v>1.33</v>
@@ -23230,10 +23230,10 @@
         <v>1.9</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.55</v>
@@ -23433,10 +23433,10 @@
         <v>0.44</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.5</v>
@@ -23636,10 +23636,10 @@
         <v>1.73</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU114" t="n">
         <v>1.25</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT115" t="n">
         <v>1.07</v>
@@ -24045,7 +24045,7 @@
         <v>1.15</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU116" t="n">
         <v>1.24</v>
@@ -24451,7 +24451,7 @@
         <v>1.77</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.59</v>
@@ -24654,7 +24654,7 @@
         <v>1.86</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.04</v>
@@ -24854,7 +24854,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT120" t="n">
         <v>1.07</v>
@@ -25666,10 +25666,10 @@
         <v>1.55</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.19</v>
@@ -25869,10 +25869,10 @@
         <v>1.73</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU125" t="n">
         <v>1.36</v>
@@ -26072,7 +26072,7 @@
         <v>1.18</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT126" t="n">
         <v>1.29</v>
@@ -26278,7 +26278,7 @@
         <v>1.77</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -26478,7 +26478,7 @@
         <v>1.54</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT128" t="n">
         <v>1.64</v>
@@ -26684,7 +26684,7 @@
         <v>1.86</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.08</v>
@@ -27087,7 +27087,7 @@
         <v>1.15</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AT131" t="n">
         <v>1.14</v>
@@ -27290,10 +27290,10 @@
         <v>1.15</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU132" t="n">
         <v>1.5</v>
@@ -27493,7 +27493,7 @@
         <v>1.15</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="AT133" t="n">
         <v>1.07</v>
@@ -27699,7 +27699,7 @@
         <v>1.43</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -27902,7 +27902,7 @@
         <v>1.27</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU135" t="n">
         <v>1.34</v>
@@ -28105,7 +28105,7 @@
         <v>1.86</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AU136" t="n">
         <v>1.12</v>
@@ -28305,10 +28305,10 @@
         <v>0.58</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28563,6 +28563,1021 @@
       </c>
       <c r="BK138" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2465920</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>29</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Arbroath</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Greenock Morton</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>6</v>
+      </c>
+      <c r="R139" t="n">
+        <v>4</v>
+      </c>
+      <c r="S139" t="n">
+        <v>10</v>
+      </c>
+      <c r="T139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2465922</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>29</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Partick Thistle</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>2</v>
+      </c>
+      <c r="R140" t="n">
+        <v>7</v>
+      </c>
+      <c r="S140" t="n">
+        <v>9</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2465921</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>29</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Hamilton Academical</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Ayr United</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['12', '27']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>3</v>
+      </c>
+      <c r="R141" t="n">
+        <v>8</v>
+      </c>
+      <c r="S141" t="n">
+        <v>11</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2465924</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Raith Rovers</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>6</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>7</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['4', '27', '54', '57', '70', '79']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>9</v>
+      </c>
+      <c r="R142" t="n">
+        <v>6</v>
+      </c>
+      <c r="S142" t="n">
+        <v>15</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2465923</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Queen's Park</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Inverness CT</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['64', '70']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>9</v>
+      </c>
+      <c r="R143" t="n">
+        <v>8</v>
+      </c>
+      <c r="S143" t="n">
+        <v>17</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>['64', '70']</t>
+  </si>
+  <si>
+    <t>['13', '59', '80']</t>
   </si>
   <si>
     <t>['16', '24', '50']</t>
@@ -1122,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1748,7 +1751,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -1835,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT4">
         <v>1.29</v>
@@ -1939,7 +1942,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2321,7 +2324,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2411,7 +2414,7 @@
         <v>2.07</v>
       </c>
       <c r="AT7">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2894,7 +2897,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3276,7 +3279,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -3363,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT12">
         <v>1.14</v>
@@ -3467,7 +3470,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3658,7 +3661,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3849,7 +3852,7 @@
         <v>86</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4422,7 +4425,7 @@
         <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4512,7 +4515,7 @@
         <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU18">
         <v>1.38</v>
@@ -4613,7 +4616,7 @@
         <v>75</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4995,7 +4998,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5568,7 +5571,7 @@
         <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5759,7 +5762,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5950,7 +5953,7 @@
         <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6141,7 +6144,7 @@
         <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6332,7 +6335,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6422,7 +6425,7 @@
         <v>1.86</v>
       </c>
       <c r="AT28">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU28">
         <v>0.9399999999999999</v>
@@ -6610,7 +6613,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT29">
         <v>1.64</v>
@@ -6714,7 +6717,7 @@
         <v>75</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6905,7 +6908,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7096,7 +7099,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7287,7 +7290,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7377,7 +7380,7 @@
         <v>1.64</v>
       </c>
       <c r="AT33">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU33">
         <v>1.13</v>
@@ -7478,7 +7481,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>13</v>
@@ -7565,7 +7568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT34">
         <v>1.4</v>
@@ -7669,7 +7672,7 @@
         <v>75</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7860,7 +7863,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8242,7 +8245,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8815,7 +8818,7 @@
         <v>75</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9006,7 +9009,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9197,7 +9200,7 @@
         <v>106</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -10343,7 +10346,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10725,7 +10728,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -10916,7 +10919,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11003,10 +11006,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT52">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU52">
         <v>1.91</v>
@@ -11298,7 +11301,7 @@
         <v>75</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11489,7 +11492,7 @@
         <v>75</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -11871,7 +11874,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12149,7 +12152,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT58">
         <v>1.13</v>
@@ -12444,7 +12447,7 @@
         <v>75</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12635,7 +12638,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12826,7 +12829,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13208,7 +13211,7 @@
         <v>75</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13298,7 +13301,7 @@
         <v>0.64</v>
       </c>
       <c r="AT64">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU64">
         <v>1.33</v>
@@ -13399,7 +13402,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13972,7 +13975,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14163,7 +14166,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14354,7 +14357,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14545,7 +14548,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14736,7 +14739,7 @@
         <v>129</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14826,7 +14829,7 @@
         <v>0.87</v>
       </c>
       <c r="AT72">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU72">
         <v>1.17</v>
@@ -15118,7 +15121,7 @@
         <v>131</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -15396,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT75">
         <v>1.07</v>
@@ -15500,7 +15503,7 @@
         <v>133</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>18</v>
@@ -15691,7 +15694,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -15969,7 +15972,7 @@
         <v>0.86</v>
       </c>
       <c r="AS78">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT78">
         <v>0.92</v>
@@ -16073,7 +16076,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16163,7 +16166,7 @@
         <v>1.15</v>
       </c>
       <c r="AT79">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU79">
         <v>1.22</v>
@@ -16455,7 +16458,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16837,7 +16840,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17219,7 +17222,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17601,7 +17604,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17691,7 +17694,7 @@
         <v>1.8</v>
       </c>
       <c r="AT87">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU87">
         <v>1.46</v>
@@ -17983,7 +17986,7 @@
         <v>89</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18174,7 +18177,7 @@
         <v>75</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18556,7 +18559,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18747,7 +18750,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -18938,7 +18941,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19025,7 +19028,7 @@
         <v>0.78</v>
       </c>
       <c r="AS94">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT94">
         <v>1.14</v>
@@ -19320,7 +19323,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -19511,7 +19514,7 @@
         <v>75</v>
       </c>
       <c r="P97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19893,7 +19896,7 @@
         <v>75</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20466,7 +20469,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20657,7 +20660,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -21039,7 +21042,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21421,7 +21424,7 @@
         <v>75</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21511,7 +21514,7 @@
         <v>1.27</v>
       </c>
       <c r="AT107">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -21612,7 +21615,7 @@
         <v>75</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21890,7 +21893,7 @@
         <v>1.82</v>
       </c>
       <c r="AS109">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT109">
         <v>1.64</v>
@@ -21994,7 +21997,7 @@
         <v>156</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22185,7 +22188,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22466,7 +22469,7 @@
         <v>2.07</v>
       </c>
       <c r="AT112">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU112">
         <v>1.55</v>
@@ -22567,7 +22570,7 @@
         <v>75</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22949,7 +22952,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23140,7 +23143,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23331,7 +23334,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23609,7 +23612,7 @@
         <v>0.7</v>
       </c>
       <c r="AS118">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT118">
         <v>0.5</v>
@@ -24286,7 +24289,7 @@
         <v>107</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24477,7 +24480,7 @@
         <v>75</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24668,7 +24671,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24949,7 +24952,7 @@
         <v>1.64</v>
       </c>
       <c r="AT125">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU125">
         <v>1.36</v>
@@ -25241,7 +25244,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25328,7 +25331,7 @@
         <v>1.42</v>
       </c>
       <c r="AS127">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT127">
         <v>1.4</v>
@@ -25432,7 +25435,7 @@
         <v>105</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25623,7 +25626,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25814,7 +25817,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -25901,7 +25904,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT130">
         <v>1.29</v>
@@ -26196,7 +26199,7 @@
         <v>167</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26578,7 +26581,7 @@
         <v>78</v>
       </c>
       <c r="P134" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26769,7 +26772,7 @@
         <v>75</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26960,7 +26963,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27050,7 +27053,7 @@
         <v>1.86</v>
       </c>
       <c r="AT136">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU136">
         <v>1.12</v>
@@ -27533,7 +27536,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27915,7 +27918,7 @@
         <v>75</v>
       </c>
       <c r="P141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28005,7 +28008,7 @@
         <v>0.87</v>
       </c>
       <c r="AT141">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AU141">
         <v>1.24</v>
@@ -28106,7 +28109,7 @@
         <v>170</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>9</v>
@@ -28297,7 +28300,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28439,6 +28442,197 @@
       </c>
       <c r="BK143">
         <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2465916</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F144">
+        <v>28</v>
+      </c>
+      <c r="G144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" t="s">
+        <v>65</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>172</v>
+      </c>
+      <c r="P144" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>2.4</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>4.33</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>3</v>
+      </c>
+      <c r="Y144">
+        <v>2.63</v>
+      </c>
+      <c r="Z144">
+        <v>1.44</v>
+      </c>
+      <c r="AA144">
+        <v>7</v>
+      </c>
+      <c r="AB144">
+        <v>1.1</v>
+      </c>
+      <c r="AC144">
+        <v>1.8</v>
+      </c>
+      <c r="AD144">
+        <v>3.6</v>
+      </c>
+      <c r="AE144">
+        <v>3.8</v>
+      </c>
+      <c r="AF144">
+        <v>1.04</v>
+      </c>
+      <c r="AG144">
+        <v>12.5</v>
+      </c>
+      <c r="AH144">
+        <v>1.25</v>
+      </c>
+      <c r="AI144">
+        <v>3.6</v>
+      </c>
+      <c r="AJ144">
+        <v>1.85</v>
+      </c>
+      <c r="AK144">
+        <v>2</v>
+      </c>
+      <c r="AL144">
+        <v>1.8</v>
+      </c>
+      <c r="AM144">
+        <v>1.91</v>
+      </c>
+      <c r="AN144">
+        <v>1.2</v>
+      </c>
+      <c r="AO144">
+        <v>1.22</v>
+      </c>
+      <c r="AP144">
+        <v>1.9</v>
+      </c>
+      <c r="AQ144">
+        <v>1.77</v>
+      </c>
+      <c r="AR144">
+        <v>1.86</v>
+      </c>
+      <c r="AS144">
+        <v>1.86</v>
+      </c>
+      <c r="AT144">
+        <v>1.73</v>
+      </c>
+      <c r="AU144">
+        <v>1.65</v>
+      </c>
+      <c r="AV144">
+        <v>1.5</v>
+      </c>
+      <c r="AW144">
+        <v>3.15</v>
+      </c>
+      <c r="AX144">
+        <v>1.31</v>
+      </c>
+      <c r="AY144">
+        <v>7</v>
+      </c>
+      <c r="AZ144">
+        <v>4.05</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>1.21</v>
+      </c>
+      <c r="BC144">
+        <v>1.43</v>
+      </c>
+      <c r="BD144">
+        <v>1.57</v>
+      </c>
+      <c r="BE144">
+        <v>1.85</v>
+      </c>
+      <c r="BF144">
+        <v>5</v>
+      </c>
+      <c r="BG144">
+        <v>3</v>
+      </c>
+      <c r="BH144">
+        <v>10</v>
+      </c>
+      <c r="BI144">
+        <v>10</v>
+      </c>
+      <c r="BJ144">
+        <v>15</v>
+      </c>
+      <c r="BK144">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['13', '59', '80']</t>
   </si>
   <si>
+    <t>['7', '24', '74']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['16', '24', '50']</t>
   </si>
   <si>
@@ -764,6 +770,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,10 +1465,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT2">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1751,7 +1760,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -1841,7 +1850,7 @@
         <v>1.86</v>
       </c>
       <c r="AT4">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1942,7 +1951,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2220,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT6">
         <v>1.64</v>
@@ -2324,7 +2333,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2411,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT7">
         <v>1.73</v>
@@ -2796,7 +2805,7 @@
         <v>1.86</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2897,7 +2906,7 @@
         <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -3279,7 +3288,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>11</v>
@@ -3369,7 +3378,7 @@
         <v>1.86</v>
       </c>
       <c r="AT12">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU12">
         <v>1.87</v>
@@ -3470,7 +3479,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3557,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT13">
         <v>0.92</v>
@@ -3661,7 +3670,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3748,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU14">
         <v>1.89</v>
@@ -3852,7 +3861,7 @@
         <v>86</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3939,10 +3948,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT15">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU15">
         <v>1.12</v>
@@ -4425,7 +4434,7 @@
         <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4616,7 +4625,7 @@
         <v>75</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4998,7 +5007,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5276,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT22">
         <v>1.6</v>
@@ -5470,7 +5479,7 @@
         <v>0.87</v>
       </c>
       <c r="AT23">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU23">
         <v>0.93</v>
@@ -5571,7 +5580,7 @@
         <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5658,7 +5667,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT24">
         <v>1.13</v>
@@ -5762,7 +5771,7 @@
         <v>93</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5953,7 +5962,7 @@
         <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6040,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU26">
         <v>1.35</v>
@@ -6144,7 +6153,7 @@
         <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6335,7 +6344,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>9</v>
@@ -6717,7 +6726,7 @@
         <v>75</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6807,7 +6816,7 @@
         <v>0.64</v>
       </c>
       <c r="AT30">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU30">
         <v>1.63</v>
@@ -6908,7 +6917,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7099,7 +7108,7 @@
         <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7189,7 +7198,7 @@
         <v>1.86</v>
       </c>
       <c r="AT32">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU32">
         <v>0.95</v>
@@ -7290,7 +7299,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7481,7 +7490,7 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>13</v>
@@ -7672,7 +7681,7 @@
         <v>75</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7863,7 +7872,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7953,7 +7962,7 @@
         <v>1.8</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU36">
         <v>1.85</v>
@@ -8141,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT37">
         <v>1.07</v>
@@ -8245,7 +8254,7 @@
         <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8526,7 +8535,7 @@
         <v>1.27</v>
       </c>
       <c r="AT39">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU39">
         <v>1.16</v>
@@ -8714,7 +8723,7 @@
         <v>1.75</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT40">
         <v>1.4</v>
@@ -8818,7 +8827,7 @@
         <v>75</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9009,7 +9018,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9096,7 +9105,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT42">
         <v>1.13</v>
@@ -9200,7 +9209,7 @@
         <v>106</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9478,10 +9487,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT44">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU44">
         <v>1.6</v>
@@ -9860,7 +9869,7 @@
         <v>1.75</v>
       </c>
       <c r="AS46">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT46">
         <v>1.64</v>
@@ -10245,7 +10254,7 @@
         <v>1.64</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU48">
         <v>1.12</v>
@@ -10346,7 +10355,7 @@
         <v>112</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10433,10 +10442,10 @@
         <v>0.8</v>
       </c>
       <c r="AS49">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT49">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU49">
         <v>1.61</v>
@@ -10728,7 +10737,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>10</v>
@@ -10818,7 +10827,7 @@
         <v>0.87</v>
       </c>
       <c r="AT51">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU51">
         <v>1.06</v>
@@ -10919,7 +10928,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11301,7 +11310,7 @@
         <v>75</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11388,7 +11397,7 @@
         <v>0.75</v>
       </c>
       <c r="AS54">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
         <v>0.92</v>
@@ -11492,7 +11501,7 @@
         <v>75</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>10</v>
@@ -11874,7 +11883,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11961,10 +11970,10 @@
         <v>0.2</v>
       </c>
       <c r="AS57">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT57">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU57">
         <v>2.01</v>
@@ -12343,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT59">
         <v>1.07</v>
@@ -12447,7 +12456,7 @@
         <v>75</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12638,7 +12647,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12725,10 +12734,10 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT61">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU61">
         <v>1.88</v>
@@ -12829,7 +12838,7 @@
         <v>120</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -12916,7 +12925,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT62">
         <v>1.6</v>
@@ -13211,7 +13220,7 @@
         <v>75</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13402,7 +13411,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13492,7 +13501,7 @@
         <v>0.87</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU65">
         <v>1.12</v>
@@ -13683,7 +13692,7 @@
         <v>1.64</v>
       </c>
       <c r="AT66">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU66">
         <v>1.22</v>
@@ -13975,7 +13984,7 @@
         <v>125</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>6</v>
@@ -14062,7 +14071,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT68">
         <v>1.13</v>
@@ -14166,7 +14175,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14253,10 +14262,10 @@
         <v>0.83</v>
       </c>
       <c r="AS69">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT69">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU69">
         <v>1.22</v>
@@ -14357,7 +14366,7 @@
         <v>127</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14548,7 +14557,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14739,7 +14748,7 @@
         <v>129</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15020,7 +15029,7 @@
         <v>1.86</v>
       </c>
       <c r="AT73">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU73">
         <v>1.06</v>
@@ -15121,7 +15130,7 @@
         <v>131</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -15211,7 +15220,7 @@
         <v>0.64</v>
       </c>
       <c r="AT74">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU74">
         <v>1.37</v>
@@ -15503,7 +15512,7 @@
         <v>133</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>18</v>
@@ -15590,7 +15599,7 @@
         <v>1.86</v>
       </c>
       <c r="AS76">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT76">
         <v>1.4</v>
@@ -15694,7 +15703,7 @@
         <v>82</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16076,7 +16085,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16163,7 +16172,7 @@
         <v>2.14</v>
       </c>
       <c r="AS79">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT79">
         <v>1.73</v>
@@ -16357,7 +16366,7 @@
         <v>1.8</v>
       </c>
       <c r="AT80">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU80">
         <v>1.5</v>
@@ -16458,7 +16467,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16736,7 +16745,7 @@
         <v>0.75</v>
       </c>
       <c r="AS82">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT82">
         <v>0.92</v>
@@ -16840,7 +16849,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17118,7 +17127,7 @@
         <v>0.88</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT84">
         <v>1.07</v>
@@ -17222,7 +17231,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17312,7 +17321,7 @@
         <v>1.27</v>
       </c>
       <c r="AT85">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU85">
         <v>1.45</v>
@@ -17500,7 +17509,7 @@
         <v>1.5</v>
       </c>
       <c r="AS86">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT86">
         <v>1.6</v>
@@ -17604,7 +17613,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17885,7 +17894,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU88">
         <v>1.36</v>
@@ -17986,7 +17995,7 @@
         <v>89</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18177,7 +18186,7 @@
         <v>75</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18264,7 +18273,7 @@
         <v>1.67</v>
       </c>
       <c r="AS90">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT90">
         <v>1.6</v>
@@ -18559,7 +18568,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18750,7 +18759,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>6</v>
@@ -18941,7 +18950,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19031,7 +19040,7 @@
         <v>1.86</v>
       </c>
       <c r="AT94">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU94">
         <v>1.53</v>
@@ -19219,10 +19228,10 @@
         <v>1.11</v>
       </c>
       <c r="AS95">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT95">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU95">
         <v>1.58</v>
@@ -19323,7 +19332,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -19410,10 +19419,10 @@
         <v>0.5</v>
       </c>
       <c r="AS96">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT96">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU96">
         <v>1.18</v>
@@ -19514,7 +19523,7 @@
         <v>75</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19896,7 +19905,7 @@
         <v>75</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20174,7 +20183,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT100">
         <v>0.92</v>
@@ -20469,7 +20478,7 @@
         <v>151</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -20660,7 +20669,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20938,7 +20947,7 @@
         <v>1.9</v>
       </c>
       <c r="AS104">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT104">
         <v>1.64</v>
@@ -21042,7 +21051,7 @@
         <v>153</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>11</v>
@@ -21129,10 +21138,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT105">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU105">
         <v>1.58</v>
@@ -21424,7 +21433,7 @@
         <v>75</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21615,7 +21624,7 @@
         <v>75</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21997,7 +22006,7 @@
         <v>156</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22087,7 +22096,7 @@
         <v>1.86</v>
       </c>
       <c r="AT110">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU110">
         <v>1.05</v>
@@ -22188,7 +22197,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22466,7 +22475,7 @@
         <v>1.9</v>
       </c>
       <c r="AS112">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT112">
         <v>1.73</v>
@@ -22570,7 +22579,7 @@
         <v>75</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22660,7 +22669,7 @@
         <v>1.8</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU113">
         <v>1.5</v>
@@ -22952,7 +22961,7 @@
         <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23143,7 +23152,7 @@
         <v>160</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23230,7 +23239,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT116">
         <v>1.13</v>
@@ -23334,7 +23343,7 @@
         <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23615,7 +23624,7 @@
         <v>1.86</v>
       </c>
       <c r="AT118">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU118">
         <v>1.59</v>
@@ -23994,7 +24003,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT120">
         <v>1.07</v>
@@ -24185,10 +24194,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT121">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU121">
         <v>1.56</v>
@@ -24289,7 +24298,7 @@
         <v>107</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24379,7 +24388,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU122">
         <v>1.33</v>
@@ -24480,7 +24489,7 @@
         <v>75</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24567,7 +24576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS123">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT123">
         <v>0.92</v>
@@ -24671,7 +24680,7 @@
         <v>164</v>
       </c>
       <c r="P124" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25143,7 +25152,7 @@
         <v>0.64</v>
       </c>
       <c r="AT126">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU126">
         <v>1.28</v>
@@ -25244,7 +25253,7 @@
         <v>165</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>10</v>
@@ -25435,7 +25444,7 @@
         <v>105</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25626,7 +25635,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25716,7 +25725,7 @@
         <v>1.86</v>
       </c>
       <c r="AT129">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU129">
         <v>1.08</v>
@@ -25817,7 +25826,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>7</v>
@@ -25907,7 +25916,7 @@
         <v>1.86</v>
       </c>
       <c r="AT130">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU130">
         <v>1.69</v>
@@ -26098,7 +26107,7 @@
         <v>0.87</v>
       </c>
       <c r="AT131">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU131">
         <v>1.22</v>
@@ -26199,7 +26208,7 @@
         <v>167</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26286,7 +26295,7 @@
         <v>1.15</v>
       </c>
       <c r="AS132">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT132">
         <v>1.13</v>
@@ -26581,7 +26590,7 @@
         <v>78</v>
       </c>
       <c r="P134" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26668,7 +26677,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT134">
         <v>1.4</v>
@@ -26772,7 +26781,7 @@
         <v>75</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -26963,7 +26972,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -27241,10 +27250,10 @@
         <v>0.58</v>
       </c>
       <c r="AS137">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT137">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU137">
         <v>1.58</v>
@@ -27435,7 +27444,7 @@
         <v>1.86</v>
       </c>
       <c r="AT138">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU138">
         <v>1.18</v>
@@ -27536,7 +27545,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27918,7 +27927,7 @@
         <v>75</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28109,7 +28118,7 @@
         <v>170</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>9</v>
@@ -28199,7 +28208,7 @@
         <v>1.64</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU142">
         <v>1.37</v>
@@ -28300,7 +28309,7 @@
         <v>171</v>
       </c>
       <c r="P143" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28387,7 +28396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS143">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT143">
         <v>1.4</v>
@@ -28491,7 +28500,7 @@
         <v>172</v>
       </c>
       <c r="P144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -28633,6 +28642,579 @@
       </c>
       <c r="BK144">
         <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2465925</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>65</v>
+      </c>
+      <c r="H145" t="s">
+        <v>66</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>173</v>
+      </c>
+      <c r="P145" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145">
+        <v>6</v>
+      </c>
+      <c r="T145">
+        <v>2.1</v>
+      </c>
+      <c r="U145">
+        <v>2.3</v>
+      </c>
+      <c r="V145">
+        <v>5</v>
+      </c>
+      <c r="W145">
+        <v>1.34</v>
+      </c>
+      <c r="X145">
+        <v>3.05</v>
+      </c>
+      <c r="Y145">
+        <v>2.6</v>
+      </c>
+      <c r="Z145">
+        <v>1.44</v>
+      </c>
+      <c r="AA145">
+        <v>6</v>
+      </c>
+      <c r="AB145">
+        <v>1.1</v>
+      </c>
+      <c r="AC145">
+        <v>1.57</v>
+      </c>
+      <c r="AD145">
+        <v>3.7</v>
+      </c>
+      <c r="AE145">
+        <v>5</v>
+      </c>
+      <c r="AF145">
+        <v>1</v>
+      </c>
+      <c r="AG145">
+        <v>10.5</v>
+      </c>
+      <c r="AH145">
+        <v>1.25</v>
+      </c>
+      <c r="AI145">
+        <v>3.75</v>
+      </c>
+      <c r="AJ145">
+        <v>1.73</v>
+      </c>
+      <c r="AK145">
+        <v>2</v>
+      </c>
+      <c r="AL145">
+        <v>1.8</v>
+      </c>
+      <c r="AM145">
+        <v>1.95</v>
+      </c>
+      <c r="AN145">
+        <v>1.11</v>
+      </c>
+      <c r="AO145">
+        <v>1.18</v>
+      </c>
+      <c r="AP145">
+        <v>2.35</v>
+      </c>
+      <c r="AQ145">
+        <v>1.43</v>
+      </c>
+      <c r="AR145">
+        <v>0.5</v>
+      </c>
+      <c r="AS145">
+        <v>1.53</v>
+      </c>
+      <c r="AT145">
+        <v>0.47</v>
+      </c>
+      <c r="AU145">
+        <v>1.51</v>
+      </c>
+      <c r="AV145">
+        <v>1.13</v>
+      </c>
+      <c r="AW145">
+        <v>2.64</v>
+      </c>
+      <c r="AX145">
+        <v>1.35</v>
+      </c>
+      <c r="AY145">
+        <v>9.5</v>
+      </c>
+      <c r="AZ145">
+        <v>3.85</v>
+      </c>
+      <c r="BA145">
+        <v>1.23</v>
+      </c>
+      <c r="BB145">
+        <v>1.43</v>
+      </c>
+      <c r="BC145">
+        <v>1.75</v>
+      </c>
+      <c r="BD145">
+        <v>2.25</v>
+      </c>
+      <c r="BE145">
+        <v>3.05</v>
+      </c>
+      <c r="BF145">
+        <v>6</v>
+      </c>
+      <c r="BG145">
+        <v>2</v>
+      </c>
+      <c r="BH145">
+        <v>4</v>
+      </c>
+      <c r="BI145">
+        <v>6</v>
+      </c>
+      <c r="BJ145">
+        <v>10</v>
+      </c>
+      <c r="BK145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2465927</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>69</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>174</v>
+      </c>
+      <c r="P146" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q146">
+        <v>2</v>
+      </c>
+      <c r="R146">
+        <v>12</v>
+      </c>
+      <c r="S146">
+        <v>14</v>
+      </c>
+      <c r="T146">
+        <v>4.01</v>
+      </c>
+      <c r="U146">
+        <v>2.18</v>
+      </c>
+      <c r="V146">
+        <v>2.83</v>
+      </c>
+      <c r="W146">
+        <v>1.41</v>
+      </c>
+      <c r="X146">
+        <v>2.88</v>
+      </c>
+      <c r="Y146">
+        <v>3.05</v>
+      </c>
+      <c r="Z146">
+        <v>1.37</v>
+      </c>
+      <c r="AA146">
+        <v>8</v>
+      </c>
+      <c r="AB146">
+        <v>1.08</v>
+      </c>
+      <c r="AC146">
+        <v>3</v>
+      </c>
+      <c r="AD146">
+        <v>3.2</v>
+      </c>
+      <c r="AE146">
+        <v>2.1</v>
+      </c>
+      <c r="AF146">
+        <v>1.05</v>
+      </c>
+      <c r="AG146">
+        <v>8</v>
+      </c>
+      <c r="AH146">
+        <v>1.28</v>
+      </c>
+      <c r="AI146">
+        <v>3.5</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.91</v>
+      </c>
+      <c r="AL146">
+        <v>1.8</v>
+      </c>
+      <c r="AM146">
+        <v>1.91</v>
+      </c>
+      <c r="AN146">
+        <v>1.68</v>
+      </c>
+      <c r="AO146">
+        <v>1.25</v>
+      </c>
+      <c r="AP146">
+        <v>1.33</v>
+      </c>
+      <c r="AQ146">
+        <v>1.15</v>
+      </c>
+      <c r="AR146">
+        <v>1.29</v>
+      </c>
+      <c r="AS146">
+        <v>1.29</v>
+      </c>
+      <c r="AT146">
+        <v>1.2</v>
+      </c>
+      <c r="AU146">
+        <v>1.22</v>
+      </c>
+      <c r="AV146">
+        <v>1.22</v>
+      </c>
+      <c r="AW146">
+        <v>2.44</v>
+      </c>
+      <c r="AX146">
+        <v>2.32</v>
+      </c>
+      <c r="AY146">
+        <v>7.6</v>
+      </c>
+      <c r="AZ146">
+        <v>1.84</v>
+      </c>
+      <c r="BA146">
+        <v>1.24</v>
+      </c>
+      <c r="BB146">
+        <v>1.45</v>
+      </c>
+      <c r="BC146">
+        <v>1.8</v>
+      </c>
+      <c r="BD146">
+        <v>2.33</v>
+      </c>
+      <c r="BE146">
+        <v>3.2</v>
+      </c>
+      <c r="BF146">
+        <v>6</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>3</v>
+      </c>
+      <c r="BJ146">
+        <v>10</v>
+      </c>
+      <c r="BK146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2465929</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F147">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>70</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>75</v>
+      </c>
+      <c r="P147" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q147">
+        <v>8</v>
+      </c>
+      <c r="R147">
+        <v>5</v>
+      </c>
+      <c r="S147">
+        <v>13</v>
+      </c>
+      <c r="T147">
+        <v>2.51</v>
+      </c>
+      <c r="U147">
+        <v>2.24</v>
+      </c>
+      <c r="V147">
+        <v>4.59</v>
+      </c>
+      <c r="W147">
+        <v>1.38</v>
+      </c>
+      <c r="X147">
+        <v>2.99</v>
+      </c>
+      <c r="Y147">
+        <v>2.9</v>
+      </c>
+      <c r="Z147">
+        <v>1.4</v>
+      </c>
+      <c r="AA147">
+        <v>6.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.11</v>
+      </c>
+      <c r="AC147">
+        <v>1.85</v>
+      </c>
+      <c r="AD147">
+        <v>3.3</v>
+      </c>
+      <c r="AE147">
+        <v>3.7</v>
+      </c>
+      <c r="AF147">
+        <v>1.01</v>
+      </c>
+      <c r="AG147">
+        <v>10</v>
+      </c>
+      <c r="AH147">
+        <v>1.23</v>
+      </c>
+      <c r="AI147">
+        <v>3.62</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.87</v>
+      </c>
+      <c r="AL147">
+        <v>1.67</v>
+      </c>
+      <c r="AM147">
+        <v>2.1</v>
+      </c>
+      <c r="AN147">
+        <v>1.21</v>
+      </c>
+      <c r="AO147">
+        <v>1.25</v>
+      </c>
+      <c r="AP147">
+        <v>1.95</v>
+      </c>
+      <c r="AQ147">
+        <v>2.07</v>
+      </c>
+      <c r="AR147">
+        <v>1.14</v>
+      </c>
+      <c r="AS147">
+        <v>1.94</v>
+      </c>
+      <c r="AT147">
+        <v>1.27</v>
+      </c>
+      <c r="AU147">
+        <v>1.58</v>
+      </c>
+      <c r="AV147">
+        <v>1.16</v>
+      </c>
+      <c r="AW147">
+        <v>2.74</v>
+      </c>
+      <c r="AX147">
+        <v>1.41</v>
+      </c>
+      <c r="AY147">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ147">
+        <v>3.55</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>1.24</v>
+      </c>
+      <c r="BC147">
+        <v>1.44</v>
+      </c>
+      <c r="BD147">
+        <v>1.75</v>
+      </c>
+      <c r="BE147">
+        <v>2.23</v>
+      </c>
+      <c r="BF147">
+        <v>4</v>
+      </c>
+      <c r="BG147">
+        <v>5</v>
+      </c>
+      <c r="BH147">
+        <v>10</v>
+      </c>
+      <c r="BI147">
+        <v>3</v>
+      </c>
+      <c r="BJ147">
+        <v>14</v>
+      </c>
+      <c r="BK147">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT3" t="n">
         <v>1.07</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.29</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.94</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT9" t="n">
         <v>0.47</v>
@@ -2527,7 +2527,7 @@
         <v>1.8</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT12" t="n">
         <v>1.27</v>
@@ -3136,7 +3136,7 @@
         <v>1.53</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU13" t="n">
         <v>1.73</v>
@@ -3542,7 +3542,7 @@
         <v>1.94</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU15" t="n">
         <v>1.12</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT16" t="n">
         <v>1.13</v>
@@ -3948,7 +3948,7 @@
         <v>1.8</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>2.44</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU18" t="n">
         <v>1.38</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT20" t="n">
         <v>1.6</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU21" t="n">
         <v>1.86</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.12</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9399999999999999</v>
@@ -6381,10 +6381,10 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU29" t="n">
         <v>2.11</v>
@@ -6584,10 +6584,10 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU30" t="n">
         <v>1.63</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU31" t="n">
         <v>1.19</v>
@@ -6990,7 +6990,7 @@
         <v>0.33</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT32" t="n">
         <v>1.27</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU33" t="n">
         <v>1.13</v>
@@ -7396,10 +7396,10 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7602,7 +7602,7 @@
         <v>0.87</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU35" t="n">
         <v>0.6899999999999999</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT39" t="n">
         <v>1.27</v>
@@ -8617,7 +8617,7 @@
         <v>1.53</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.98</v>
@@ -9223,7 +9223,7 @@
         <v>1.75</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT43" t="n">
         <v>1.6</v>
@@ -9429,7 +9429,7 @@
         <v>1.29</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU44" t="n">
         <v>1.6</v>
@@ -9629,7 +9629,7 @@
         <v>1.4</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT45" t="n">
         <v>1.6</v>
@@ -9835,7 +9835,7 @@
         <v>1.53</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>0.96</v>
@@ -10238,7 +10238,7 @@
         <v>0.25</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT48" t="n">
         <v>0.47</v>
@@ -10644,7 +10644,7 @@
         <v>0.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT50" t="n">
         <v>1.07</v>
@@ -10850,7 +10850,7 @@
         <v>0.87</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU51" t="n">
         <v>1.06</v>
@@ -11050,10 +11050,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU52" t="n">
         <v>1.91</v>
@@ -11253,10 +11253,10 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.34</v>
@@ -11459,7 +11459,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU54" t="n">
         <v>1.44</v>
@@ -11659,7 +11659,7 @@
         <v>0.6</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT55" t="n">
         <v>1.07</v>
@@ -11862,10 +11862,10 @@
         <v>1.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU56" t="n">
         <v>1.33</v>
@@ -12268,7 +12268,7 @@
         <v>1.4</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT58" t="n">
         <v>1.13</v>
@@ -12677,7 +12677,7 @@
         <v>1.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU60" t="n">
         <v>1.87</v>
@@ -12880,7 +12880,7 @@
         <v>1.53</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU61" t="n">
         <v>1.88</v>
@@ -13283,10 +13283,10 @@
         <v>2.17</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.07</v>
@@ -13486,10 +13486,10 @@
         <v>1.8</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU64" t="n">
         <v>1.33</v>
@@ -13892,10 +13892,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU66" t="n">
         <v>1.22</v>
@@ -14095,10 +14095,10 @@
         <v>1.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU71" t="n">
         <v>1.23</v>
@@ -15113,7 +15113,7 @@
         <v>0.87</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU72" t="n">
         <v>1.17</v>
@@ -15313,10 +15313,10 @@
         <v>1.29</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU73" t="n">
         <v>1.06</v>
@@ -15516,7 +15516,7 @@
         <v>0.43</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT74" t="n">
         <v>0.47</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT75" t="n">
         <v>1.07</v>
@@ -15925,7 +15925,7 @@
         <v>1.94</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.5</v>
@@ -16125,7 +16125,7 @@
         <v>1.29</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT77" t="n">
         <v>1.13</v>
@@ -16328,10 +16328,10 @@
         <v>0.86</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU78" t="n">
         <v>1.57</v>
@@ -16534,7 +16534,7 @@
         <v>1.29</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.22</v>
@@ -16937,10 +16937,10 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU81" t="n">
         <v>1.23</v>
@@ -17143,7 +17143,7 @@
         <v>1.94</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU82" t="n">
         <v>1.6</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT83" t="n">
         <v>1.13</v>
@@ -17749,10 +17749,10 @@
         <v>1.13</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU85" t="n">
         <v>1.45</v>
@@ -18158,7 +18158,7 @@
         <v>1.8</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU87" t="n">
         <v>1.46</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT88" t="n">
         <v>1.27</v>
@@ -18561,10 +18561,10 @@
         <v>1.63</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU89" t="n">
         <v>1.32</v>
@@ -18967,10 +18967,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU91" t="n">
         <v>1.37</v>
@@ -19173,7 +19173,7 @@
         <v>1.8</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.47</v>
@@ -19373,7 +19373,7 @@
         <v>1.44</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT93" t="n">
         <v>1.13</v>
@@ -19576,7 +19576,7 @@
         <v>0.78</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT94" t="n">
         <v>1.27</v>
@@ -19782,7 +19782,7 @@
         <v>1.94</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU95" t="n">
         <v>1.58</v>
@@ -20388,7 +20388,7 @@
         <v>1.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT98" t="n">
         <v>1.6</v>
@@ -20591,10 +20591,10 @@
         <v>1.78</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -20797,7 +20797,7 @@
         <v>1.53</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU100" t="n">
         <v>1.61</v>
@@ -21200,10 +21200,10 @@
         <v>1.44</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU102" t="n">
         <v>1.3</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT103" t="n">
         <v>1.07</v>
@@ -21609,7 +21609,7 @@
         <v>1.29</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU104" t="n">
         <v>1.24</v>
@@ -22215,10 +22215,10 @@
         <v>1.78</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU107" t="n">
         <v>1.36</v>
@@ -22421,7 +22421,7 @@
         <v>1.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU108" t="n">
         <v>1.54</v>
@@ -22621,10 +22621,10 @@
         <v>1.82</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT110" t="n">
         <v>1.27</v>
@@ -23027,10 +23027,10 @@
         <v>1.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.33</v>
@@ -23233,7 +23233,7 @@
         <v>1.94</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU112" t="n">
         <v>1.55</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT115" t="n">
         <v>1.07</v>
@@ -24245,10 +24245,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU117" t="n">
         <v>1.02</v>
@@ -24448,7 +24448,7 @@
         <v>0.7</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT118" t="n">
         <v>0.47</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT119" t="n">
         <v>1.6</v>
@@ -25060,7 +25060,7 @@
         <v>1.53</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU121" t="n">
         <v>1.56</v>
@@ -25260,7 +25260,7 @@
         <v>1.17</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT122" t="n">
         <v>1.27</v>
@@ -25466,7 +25466,7 @@
         <v>1.29</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU123" t="n">
         <v>1.25</v>
@@ -25669,7 +25669,7 @@
         <v>0.87</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.19</v>
@@ -25869,10 +25869,10 @@
         <v>1.73</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU125" t="n">
         <v>1.36</v>
@@ -26072,10 +26072,10 @@
         <v>1.18</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU126" t="n">
         <v>1.28</v>
@@ -26275,10 +26275,10 @@
         <v>1.42</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -26481,7 +26481,7 @@
         <v>0.87</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU128" t="n">
         <v>1.22</v>
@@ -26681,7 +26681,7 @@
         <v>0.64</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT129" t="n">
         <v>0.47</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU130" t="n">
         <v>1.69</v>
@@ -27699,7 +27699,7 @@
         <v>1.53</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU134" t="n">
         <v>1.53</v>
@@ -27899,7 +27899,7 @@
         <v>1.54</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT135" t="n">
         <v>1.6</v>
@@ -28102,10 +28102,10 @@
         <v>1.67</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU136" t="n">
         <v>1.12</v>
@@ -28508,10 +28508,10 @@
         <v>1.31</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU138" t="n">
         <v>1.18</v>
@@ -28711,7 +28711,7 @@
         <v>1.14</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AT139" t="n">
         <v>1.13</v>
@@ -29120,7 +29120,7 @@
         <v>0.87</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU141" t="n">
         <v>1.24</v>
@@ -29320,7 +29320,7 @@
         <v>0.54</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT142" t="n">
         <v>0.47</v>
@@ -29526,7 +29526,7 @@
         <v>1.94</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.58</v>
@@ -29726,10 +29726,10 @@
         <v>1.86</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AU144" t="n">
         <v>1.65</v>
@@ -30135,7 +30135,7 @@
         <v>1.29</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU146" t="n">
         <v>1.22</v>
@@ -30389,6 +30389,1021 @@
         <v>14</v>
       </c>
       <c r="BK147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2465930</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>31</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Arbroath</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Ayr United</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['27', '60']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>7</v>
+      </c>
+      <c r="R148" t="n">
+        <v>8</v>
+      </c>
+      <c r="S148" t="n">
+        <v>15</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2465934</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>31</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Raith Rovers</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Queen's Park</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['30', '62']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2</v>
+      </c>
+      <c r="S149" t="n">
+        <v>7</v>
+      </c>
+      <c r="T149" t="n">
+        <v>3</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2465931</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>31</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Partick Thistle</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>5</v>
+      </c>
+      <c r="N150" t="n">
+        <v>5</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['11', '18', '58', '62', '90']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>9</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3</v>
+      </c>
+      <c r="S150" t="n">
+        <v>12</v>
+      </c>
+      <c r="T150" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2465932</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>31</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Hamilton Academical</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4</v>
+      </c>
+      <c r="L151" t="n">
+        <v>7</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>7</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['7', '16', '45', '45+4', '72', '76', '84']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>5</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>6</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2465933</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>31</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Greenock Morton</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Inverness CT</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['54', '88']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V152" t="n">
+        <v>4</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK152" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1.8</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -3136,7 +3136,7 @@
         <v>1.53</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>1.73</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT16" t="n">
         <v>1.13</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6790,7 +6790,7 @@
         <v>1.19</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.19</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT33" t="n">
         <v>1.63</v>
@@ -10038,7 +10038,7 @@
         <v>1.73</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>0.96</v>
@@ -10238,7 +10238,7 @@
         <v>0.25</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
         <v>0.47</v>
@@ -11459,7 +11459,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.44</v>
@@ -11865,7 +11865,7 @@
         <v>0.8</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.33</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>1.31</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.23</v>
@@ -16331,7 +16331,7 @@
         <v>1.93</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.57</v>
@@ -16937,7 +16937,7 @@
         <v>1.43</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT81" t="n">
         <v>1.53</v>
@@ -17143,7 +17143,7 @@
         <v>1.94</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.6</v>
@@ -18358,7 +18358,7 @@
         <v>0.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT88" t="n">
         <v>1.27</v>
@@ -18970,7 +18970,7 @@
         <v>1.19</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.37</v>
@@ -19373,7 +19373,7 @@
         <v>1.44</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT93" t="n">
         <v>1.13</v>
@@ -20388,7 +20388,7 @@
         <v>1.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT98" t="n">
         <v>1.6</v>
@@ -20797,7 +20797,7 @@
         <v>1.53</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.61</v>
@@ -22421,7 +22421,7 @@
         <v>1.8</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.54</v>
@@ -23027,7 +23027,7 @@
         <v>1.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT111" t="n">
         <v>1.5</v>
@@ -25466,7 +25466,7 @@
         <v>1.29</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>1.25</v>
@@ -25869,7 +25869,7 @@
         <v>1.73</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT125" t="n">
         <v>1.63</v>
@@ -29320,7 +29320,7 @@
         <v>0.54</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT142" t="n">
         <v>0.47</v>
@@ -30741,7 +30741,7 @@
         <v>1.64</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT149" t="n">
         <v>1.53</v>
@@ -31150,7 +31150,7 @@
         <v>1.93</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU151" t="n">
         <v>1.65</v>
@@ -31405,6 +31405,209 @@
       </c>
       <c r="BK152" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2465919</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45020.65625</v>
+      </c>
+      <c r="F153" t="n">
+        <v>28</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Raith Rovers</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Hamilton Academical</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['62', '64']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1</v>
+      </c>
+      <c r="S153" t="n">
+        <v>6</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V153" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Championship_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1.27</v>
@@ -1106,7 +1106,7 @@
         <v>1.19</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT5" t="n">
         <v>1.13</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2324,7 +2324,7 @@
         <v>1.73</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1.63</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>1.89</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0.96</v>
@@ -4557,7 +4557,7 @@
         <v>1.73</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU20" t="n">
         <v>0.97</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU21" t="n">
         <v>1.86</v>
@@ -4960,10 +4960,10 @@
         <v>2</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -5163,7 +5163,7 @@
         <v>0.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT23" t="n">
         <v>1.27</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
         <v>1.13</v>
@@ -5569,10 +5569,10 @@
         <v>1.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.86</v>
@@ -5775,7 +5775,7 @@
         <v>1.94</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.35</v>
@@ -6384,7 +6384,7 @@
         <v>1.93</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU29" t="n">
         <v>2.11</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT30" t="n">
         <v>1.31</v>
@@ -7599,10 +7599,10 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU35" t="n">
         <v>0.6899999999999999</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -8008,7 +8008,7 @@
         <v>1.94</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.68</v>
@@ -8208,7 +8208,7 @@
         <v>1.33</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT38" t="n">
         <v>1.13</v>
@@ -8614,7 +8614,7 @@
         <v>1.75</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
         <v>1.5</v>
@@ -8817,10 +8817,10 @@
         <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU41" t="n">
         <v>1.02</v>
@@ -9226,7 +9226,7 @@
         <v>1.19</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU43" t="n">
         <v>1.31</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT44" t="n">
         <v>1.31</v>
@@ -9629,10 +9629,10 @@
         <v>1.4</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU45" t="n">
         <v>1.27</v>
@@ -9832,10 +9832,10 @@
         <v>1.75</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU46" t="n">
         <v>2.03</v>
@@ -10241,7 +10241,7 @@
         <v>1.63</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.12</v>
@@ -10647,7 +10647,7 @@
         <v>1.73</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.03</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT51" t="n">
         <v>1.31</v>
@@ -11456,7 +11456,7 @@
         <v>0.75</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11659,10 +11659,10 @@
         <v>0.6</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.39</v>
@@ -11862,7 +11862,7 @@
         <v>1.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12065,10 +12065,10 @@
         <v>0.2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>2.01</v>
@@ -12471,10 +12471,10 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.37</v>
@@ -12674,10 +12674,10 @@
         <v>1.4</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU60" t="n">
         <v>1.87</v>
@@ -12877,7 +12877,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
         <v>1.31</v>
@@ -13083,7 +13083,7 @@
         <v>1.94</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU62" t="n">
         <v>1.51</v>
@@ -13486,7 +13486,7 @@
         <v>1.8</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT64" t="n">
         <v>1.63</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.12</v>
@@ -14098,7 +14098,7 @@
         <v>1.19</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT68" t="n">
         <v>1.13</v>
@@ -14501,7 +14501,7 @@
         <v>0.83</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT69" t="n">
         <v>1.27</v>
@@ -14704,10 +14704,10 @@
         <v>1.29</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU70" t="n">
         <v>1.62</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT72" t="n">
         <v>1.63</v>
@@ -15516,10 +15516,10 @@
         <v>0.43</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.37</v>
@@ -15722,7 +15722,7 @@
         <v>1.93</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.68</v>
@@ -16531,7 +16531,7 @@
         <v>2.14</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT79" t="n">
         <v>1.63</v>
@@ -16734,7 +16734,7 @@
         <v>0.86</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT80" t="n">
         <v>1.27</v>
@@ -16940,7 +16940,7 @@
         <v>1.63</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU81" t="n">
         <v>1.23</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT83" t="n">
         <v>1.13</v>
@@ -17546,10 +17546,10 @@
         <v>0.88</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.72</v>
@@ -17952,10 +17952,10 @@
         <v>1.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU86" t="n">
         <v>1.2</v>
@@ -18155,7 +18155,7 @@
         <v>2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT87" t="n">
         <v>1.63</v>
@@ -18561,10 +18561,10 @@
         <v>1.63</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.32</v>
@@ -18764,10 +18764,10 @@
         <v>1.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU90" t="n">
         <v>1.7</v>
@@ -19170,7 +19170,7 @@
         <v>1.63</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -19982,10 +19982,10 @@
         <v>0.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.18</v>
@@ -20185,10 +20185,10 @@
         <v>0.78</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.26</v>
@@ -20391,7 +20391,7 @@
         <v>1.63</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU98" t="n">
         <v>1.34</v>
@@ -20594,7 +20594,7 @@
         <v>1.19</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -20794,7 +20794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT101" t="n">
         <v>1.13</v>
@@ -21200,7 +21200,7 @@
         <v>1.44</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT102" t="n">
         <v>1.5</v>
@@ -21406,7 +21406,7 @@
         <v>1.19</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.35</v>
@@ -21606,10 +21606,10 @@
         <v>1.9</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU104" t="n">
         <v>1.24</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT105" t="n">
         <v>1.27</v>
@@ -22012,7 +22012,7 @@
         <v>1.27</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT106" t="n">
         <v>1.13</v>
@@ -22418,7 +22418,7 @@
         <v>0.55</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>1.93</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU109" t="n">
         <v>1.54</v>
@@ -23433,10 +23433,10 @@
         <v>0.44</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.5</v>
@@ -23636,10 +23636,10 @@
         <v>1.73</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU114" t="n">
         <v>1.25</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.26</v>
@@ -24042,7 +24042,7 @@
         <v>1.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT116" t="n">
         <v>1.13</v>
@@ -24248,7 +24248,7 @@
         <v>1.73</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU117" t="n">
         <v>1.02</v>
@@ -24451,7 +24451,7 @@
         <v>1.93</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.59</v>
@@ -24654,7 +24654,7 @@
         <v>1.73</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU119" t="n">
         <v>1.04</v>
@@ -24857,7 +24857,7 @@
         <v>1.94</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.54</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT121" t="n">
         <v>1.31</v>
@@ -25463,7 +25463,7 @@
         <v>0.75</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25666,7 +25666,7 @@
         <v>1.55</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT124" t="n">
         <v>1.5</v>
@@ -26072,7 +26072,7 @@
         <v>1.18</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT126" t="n">
         <v>1.31</v>
@@ -26478,10 +26478,10 @@
         <v>1.54</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU128" t="n">
         <v>1.22</v>
@@ -26684,7 +26684,7 @@
         <v>1.73</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.08</v>
@@ -27087,7 +27087,7 @@
         <v>1.15</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT131" t="n">
         <v>1.27</v>
@@ -27493,10 +27493,10 @@
         <v>1.15</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.53</v>
@@ -27696,7 +27696,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT134" t="n">
         <v>1.5</v>
@@ -27902,7 +27902,7 @@
         <v>1.19</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU135" t="n">
         <v>1.34</v>
@@ -28308,7 +28308,7 @@
         <v>1.94</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28711,7 +28711,7 @@
         <v>1.14</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT139" t="n">
         <v>1.13</v>
@@ -28914,10 +28914,10 @@
         <v>1.64</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU140" t="n">
         <v>1.5</v>
@@ -29117,7 +29117,7 @@
         <v>1.77</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AT141" t="n">
         <v>1.63</v>
@@ -29323,7 +29323,7 @@
         <v>1.63</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU142" t="n">
         <v>1.37</v>
@@ -29929,10 +29929,10 @@
         <v>0.5</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="AU145" t="n">
         <v>1.51</v>
@@ -30132,7 +30132,7 @@
         <v>1.29</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT146" t="n">
         <v>1.31</v>
@@ -30538,7 +30538,7 @@
         <v>1.73</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT148" t="n">
         <v>1.63</v>
@@ -30744,7 +30744,7 @@
         <v>1.63</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AU149" t="n">
         <v>1.42</v>
@@ -31608,6 +31608,1021 @@
       </c>
       <c r="BK153" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2465939</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F154" t="n">
+        <v>32</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Partick Thistle</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Queen's Park</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['50', '67', '86', '90+2']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>6</v>
+      </c>
+      <c r="R154" t="n">
+        <v>5</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2465938</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>32</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Inverness CT</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Raith Rovers</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['12', '21']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>8</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2465937</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>32</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Hamilton Academical</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Cove Rangers</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>3</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>6</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2465936</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F157" t="n">
+        <v>32</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Ayr United</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Greenock Morton</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>8</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>10</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2465935</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Scotland Championship</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F158" t="n">
+        <v>32</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Arbroath</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>2</v>
+      </c>
+      <c r="R158" t="n">
+        <v>5</v>
+      </c>
+      <c r="S158" t="n">
+        <v>7</v>
+      </c>
+      <c r="T158" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
